--- a/mallar/Protokoll 2019/Protokoll 2019 individuell senior.xlsx
+++ b/mallar/Protokoll 2019/Protokoll 2019 individuell senior.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\Protokoll 2019\ej klara\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\Protokoll 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4493ED39-F9B7-41BB-93B4-5F37F4A6097B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE166A77-441F-4B81-9D0A-4B77C918F685}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16230" yWindow="3390" windowWidth="16200" windowHeight="9397" tabRatio="966" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -419,9 +419,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>Från framlänges knästående till baklänges stående</t>
-  </si>
-  <si>
     <t>Framlänges kullerbytta från korset till sittande på halsen</t>
   </si>
   <si>
@@ -853,9 +850,6 @@
     <t>Grundövningar</t>
   </si>
   <si>
-    <t>Upphopp till armbågsstående</t>
-  </si>
-  <si>
     <t>Upphopp till baklänges axelstående</t>
   </si>
   <si>
@@ -881,6 +875,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gulmarkerade celler i protokollen markerar vilka celler som ska fyllas i. </t>
+  </si>
+  <si>
+    <t>Hopp från framlänges knästående till baklänges stående</t>
+  </si>
+  <si>
+    <t>Armbågsstående</t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -2147,7 +2147,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2448,7 +2448,7 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="54" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
@@ -2515,10 +2515,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2533,19 +2533,19 @@
     <xf numFmtId="167" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2573,264 +2573,6 @@
     <xf numFmtId="167" fontId="1" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="58" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2850,6 +2592,264 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="58" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3206,8 +3206,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD69"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3218,23 +3218,23 @@
   <sheetData>
     <row r="1" spans="1:6" s="231" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
       <c r="A1" s="230" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="231" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="231" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="231" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="231" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="231" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:6" s="276" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="276" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="231" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3242,18 +3242,18 @@
     <row r="8" spans="1:6" s="231" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:6" s="231" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="231" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="231" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:6" s="208" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A11" s="208" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="205" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -3261,61 +3261,61 @@
     </row>
     <row r="15" spans="1:6" s="209" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A15" s="209" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="210" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="205"/>
       <c r="F16" s="210" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="209" t="s">
-        <v>107</v>
-      </c>
       <c r="D17" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="209"/>
       <c r="F17" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="209" t="s">
-        <v>107</v>
-      </c>
       <c r="H17" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="205" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="206" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="206" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D18" s="206" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E18" s="212"/>
       <c r="F18" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="206" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" s="206" t="s">
         <v>110</v>
-      </c>
-      <c r="G18" s="206" t="s">
-        <v>180</v>
-      </c>
-      <c r="H18" s="206" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3330,26 +3330,26 @@
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="205" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="206" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="206" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D20" s="206" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E20" s="212"/>
       <c r="F20" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="206" t="s">
         <v>110</v>
-      </c>
-      <c r="G20" s="206" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" s="206" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3362,192 +3362,192 @@
       <c r="G21" s="207"/>
       <c r="H21" s="207"/>
     </row>
-    <row r="22" spans="1:9" s="367" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="364" t="s">
+    <row r="22" spans="1:9" s="281" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="278" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="280"/>
+      <c r="F22" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="279" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="279" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="281" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="278"/>
+      <c r="B23" s="282"/>
+      <c r="C23" s="282"/>
+      <c r="D23" s="282"/>
+      <c r="E23" s="283"/>
+      <c r="F23" s="282"/>
+      <c r="G23" s="282"/>
+      <c r="H23" s="282"/>
+    </row>
+    <row r="24" spans="1:9" s="281" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="278" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="365" t="s">
+      <c r="B24" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="280"/>
+      <c r="F24" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="279" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="279" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="281" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="284" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="279" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="279" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="366"/>
-      <c r="F22" s="365" t="s">
+      <c r="E25" s="283"/>
+    </row>
+    <row r="26" spans="1:9" s="281" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="284"/>
+      <c r="B26" s="279"/>
+      <c r="C26" s="279"/>
+      <c r="D26" s="279"/>
+      <c r="E26" s="283"/>
+    </row>
+    <row r="27" spans="1:9" s="281" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="278" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="280"/>
+      <c r="F27" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="279" t="s">
+        <v>181</v>
+      </c>
+      <c r="H27" s="279" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="365" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="365" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="367" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="364"/>
-      <c r="B23" s="368"/>
-      <c r="C23" s="368"/>
-      <c r="D23" s="368"/>
-      <c r="E23" s="369"/>
-      <c r="F23" s="368"/>
-      <c r="G23" s="368"/>
-      <c r="H23" s="368"/>
-    </row>
-    <row r="24" spans="1:9" s="367" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="364" t="s">
+    </row>
+    <row r="28" spans="1:9" s="281" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="284" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="279" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="366"/>
-      <c r="F24" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="365" t="s">
+      <c r="D28" s="279" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="365" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="367" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="370" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="365" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="365" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="369"/>
-    </row>
-    <row r="26" spans="1:9" s="367" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="370"/>
-      <c r="B26" s="365"/>
-      <c r="C26" s="365"/>
-      <c r="D26" s="365"/>
-      <c r="E26" s="369"/>
-    </row>
-    <row r="27" spans="1:9" s="367" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="364" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" s="366"/>
-      <c r="F27" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="365" t="s">
-        <v>183</v>
-      </c>
-      <c r="H27" s="365" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="367" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="370" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="365" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="365" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="369"/>
+      <c r="E28" s="283"/>
     </row>
     <row r="30" spans="1:9" s="209" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A30" s="209" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="210" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="205"/>
       <c r="F31" s="210" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="209" t="s">
-        <v>107</v>
-      </c>
       <c r="D32" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="209" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F32" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="209" t="s">
-        <v>107</v>
-      </c>
       <c r="H32" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I32" s="209" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="205" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="206" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="206" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="206" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" s="206" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33" s="206" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="206" t="s">
-        <v>180</v>
-      </c>
-      <c r="H33" s="206" t="s">
-        <v>111</v>
-      </c>
       <c r="I33" s="206" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3563,31 +3563,31 @@
     </row>
     <row r="35" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="205" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="206" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="206" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="206" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="206" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="206" t="s">
-        <v>178</v>
-      </c>
-      <c r="E35" s="206" t="s">
-        <v>178</v>
-      </c>
-      <c r="F35" s="206" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" s="206" t="s">
-        <v>182</v>
-      </c>
-      <c r="H35" s="206" t="s">
-        <v>111</v>
-      </c>
       <c r="I35" s="206" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3601,142 +3601,142 @@
       <c r="H36" s="207"/>
       <c r="I36" s="207"/>
     </row>
-    <row r="37" spans="1:14" s="367" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="364" t="s">
+    <row r="37" spans="1:14" s="281" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="278" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="279" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37" s="279" t="s">
+        <v>110</v>
+      </c>
+      <c r="I37" s="279" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="281" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="278"/>
+      <c r="B38" s="282"/>
+      <c r="C38" s="282"/>
+      <c r="D38" s="282"/>
+      <c r="E38" s="282"/>
+      <c r="F38" s="282"/>
+      <c r="G38" s="282"/>
+      <c r="H38" s="282"/>
+      <c r="I38" s="282"/>
+    </row>
+    <row r="39" spans="1:14" s="281" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="278" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="365" t="s">
+      <c r="B39" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="285" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="279" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" s="279" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" s="279" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="281" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="284" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="279" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="279" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="E37" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="F37" s="365" t="s">
+      <c r="E40" s="279" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="281" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="283"/>
+      <c r="C41" s="283"/>
+      <c r="D41" s="283"/>
+      <c r="E41" s="283"/>
+    </row>
+    <row r="42" spans="1:14" s="281" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="278" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="279" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" s="279" t="s">
         <v>110</v>
       </c>
-      <c r="G37" s="365" t="s">
-        <v>183</v>
-      </c>
-      <c r="H37" s="365" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" s="365" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="367" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="364"/>
-      <c r="B38" s="368"/>
-      <c r="C38" s="368"/>
-      <c r="D38" s="368"/>
-      <c r="E38" s="368"/>
-      <c r="F38" s="368"/>
-      <c r="G38" s="368"/>
-      <c r="H38" s="368"/>
-      <c r="I38" s="368"/>
-    </row>
-    <row r="39" spans="1:14" s="367" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="364" t="s">
+      <c r="I42" s="279" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="281" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="284" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="279" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="F39" s="371" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" s="365" t="s">
+      <c r="D43" s="279" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="365" t="s">
-        <v>115</v>
-      </c>
-      <c r="I39" s="365" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="367" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="370" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="365" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="365" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="365" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="367" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="369"/>
-      <c r="C41" s="369"/>
-      <c r="D41" s="369"/>
-      <c r="E41" s="369"/>
-    </row>
-    <row r="42" spans="1:14" s="367" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="364" t="s">
+      <c r="E43" s="279" t="s">
         <v>113</v>
-      </c>
-      <c r="B42" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="E42" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="F42" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" s="365" t="s">
-        <v>183</v>
-      </c>
-      <c r="H42" s="365" t="s">
-        <v>111</v>
-      </c>
-      <c r="I42" s="365" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="367" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="370" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="365" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="365" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="365" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -3753,106 +3753,106 @@
     </row>
     <row r="46" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A46" s="209" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="210" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="205"/>
       <c r="F48" s="210" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J48" s="210" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K48" s="205"/>
       <c r="N48" s="210" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="209" t="s">
-        <v>107</v>
-      </c>
       <c r="D49" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E49" s="209"/>
       <c r="F49" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="G49" s="209" t="s">
-        <v>107</v>
-      </c>
       <c r="H49" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J49" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="K49" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="K49" s="209" t="s">
-        <v>107</v>
-      </c>
       <c r="L49" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M49" s="209"/>
       <c r="N49" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="O49" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="O49" s="209" t="s">
-        <v>107</v>
-      </c>
       <c r="P49" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="205" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50" s="206" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" s="206" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D50" s="206" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E50" s="212"/>
       <c r="F50" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="206" t="s">
+        <v>178</v>
+      </c>
+      <c r="H50" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="G50" s="206" t="s">
-        <v>180</v>
-      </c>
-      <c r="H50" s="206" t="s">
-        <v>111</v>
-      </c>
       <c r="J50" s="206" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K50" s="206" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L50" s="206" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M50" s="212"/>
       <c r="N50" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="O50" s="206" t="s">
+        <v>178</v>
+      </c>
+      <c r="P50" s="206" t="s">
         <v>110</v>
-      </c>
-      <c r="O50" s="206" t="s">
-        <v>180</v>
-      </c>
-      <c r="P50" s="206" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3874,45 +3874,45 @@
     </row>
     <row r="52" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="205" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" s="206" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="206" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D52" s="206" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E52" s="212"/>
       <c r="F52" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="H52" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="G52" s="206" t="s">
-        <v>182</v>
-      </c>
-      <c r="H52" s="206" t="s">
-        <v>111</v>
-      </c>
       <c r="J52" s="206" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K52" s="206" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L52" s="206" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M52" s="212"/>
       <c r="N52" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="O52" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="P52" s="206" t="s">
         <v>110</v>
-      </c>
-      <c r="O52" s="206" t="s">
-        <v>182</v>
-      </c>
-      <c r="P52" s="206" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3932,107 +3932,107 @@
       <c r="O53" s="207"/>
       <c r="P53" s="207"/>
     </row>
-    <row r="54" spans="1:17" s="367" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="364" t="s">
+    <row r="54" spans="1:17" s="281" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="278" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="280"/>
+      <c r="F54" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="G54" s="279" t="s">
+        <v>181</v>
+      </c>
+      <c r="H54" s="279" t="s">
+        <v>110</v>
+      </c>
+      <c r="J54" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="K54" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="L54" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="M54" s="280"/>
+      <c r="N54" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="O54" s="279" t="s">
+        <v>181</v>
+      </c>
+      <c r="P54" s="279" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="281" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="278"/>
+      <c r="B55" s="282"/>
+      <c r="C55" s="282"/>
+      <c r="D55" s="282"/>
+      <c r="E55" s="283"/>
+      <c r="F55" s="282"/>
+      <c r="G55" s="282"/>
+      <c r="H55" s="282"/>
+      <c r="J55" s="282"/>
+      <c r="K55" s="282"/>
+      <c r="L55" s="282"/>
+      <c r="M55" s="283"/>
+      <c r="N55" s="282"/>
+      <c r="O55" s="282"/>
+      <c r="P55" s="282"/>
+    </row>
+    <row r="56" spans="1:17" s="281" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="278" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="365" t="s">
+      <c r="B56" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" s="280"/>
+      <c r="F56" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="279" t="s">
+        <v>113</v>
+      </c>
+      <c r="H56" s="279" t="s">
+        <v>114</v>
+      </c>
+      <c r="J56" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="K56" s="279" t="s">
+        <v>181</v>
+      </c>
+      <c r="L56" s="279" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="D54" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="E54" s="366"/>
-      <c r="F54" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="G54" s="365" t="s">
-        <v>183</v>
-      </c>
-      <c r="H54" s="365" t="s">
-        <v>111</v>
-      </c>
-      <c r="J54" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="K54" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="L54" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="M54" s="366"/>
-      <c r="N54" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="O54" s="365" t="s">
-        <v>183</v>
-      </c>
-      <c r="P54" s="365" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" s="367" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="364"/>
-      <c r="B55" s="368"/>
-      <c r="C55" s="368"/>
-      <c r="D55" s="368"/>
-      <c r="E55" s="369"/>
-      <c r="F55" s="368"/>
-      <c r="G55" s="368"/>
-      <c r="H55" s="368"/>
-      <c r="J55" s="368"/>
-      <c r="K55" s="368"/>
-      <c r="L55" s="368"/>
-      <c r="M55" s="369"/>
-      <c r="N55" s="368"/>
-      <c r="O55" s="368"/>
-      <c r="P55" s="368"/>
-    </row>
-    <row r="56" spans="1:17" s="367" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="364" t="s">
+      <c r="M56" s="280"/>
+      <c r="N56" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="O56" s="279" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="D56" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="E56" s="366"/>
-      <c r="F56" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="G56" s="365" t="s">
+      <c r="P56" s="279" t="s">
         <v>114</v>
-      </c>
-      <c r="H56" s="365" t="s">
-        <v>115</v>
-      </c>
-      <c r="J56" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="K56" s="365" t="s">
-        <v>183</v>
-      </c>
-      <c r="L56" s="365" t="s">
-        <v>111</v>
-      </c>
-      <c r="M56" s="366"/>
-      <c r="N56" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="O56" s="365" t="s">
-        <v>114</v>
-      </c>
-      <c r="P56" s="365" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
@@ -4044,126 +4044,126 @@
     </row>
     <row r="59" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A59" s="209" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="210" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" s="205"/>
       <c r="F61" s="210" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J61" s="210" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K61" s="205"/>
       <c r="N61" s="210" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="209" t="s">
-        <v>107</v>
-      </c>
       <c r="D62" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E62" s="209" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F62" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="G62" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="G62" s="209" t="s">
-        <v>107</v>
-      </c>
       <c r="H62" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I62" s="209" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J62" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="K62" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="K62" s="209" t="s">
-        <v>107</v>
-      </c>
       <c r="L62" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M62" s="209" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N62" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="O62" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="O62" s="209" t="s">
-        <v>107</v>
-      </c>
       <c r="P62" s="209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q62" s="209" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="205" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B63" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="F63" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" s="206" t="s">
+        <v>178</v>
+      </c>
+      <c r="H63" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="206" t="s">
-        <v>177</v>
-      </c>
-      <c r="D63" s="206" t="s">
-        <v>177</v>
-      </c>
-      <c r="E63" s="206" t="s">
-        <v>177</v>
-      </c>
-      <c r="F63" s="206" t="s">
+      <c r="I63" s="206" t="s">
+        <v>178</v>
+      </c>
+      <c r="J63" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="K63" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="L63" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="M63" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="N63" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="O63" s="206" t="s">
+        <v>178</v>
+      </c>
+      <c r="P63" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="G63" s="206" t="s">
-        <v>180</v>
-      </c>
-      <c r="H63" s="206" t="s">
-        <v>111</v>
-      </c>
-      <c r="I63" s="206" t="s">
-        <v>180</v>
-      </c>
-      <c r="J63" s="206" t="s">
-        <v>110</v>
-      </c>
-      <c r="K63" s="206" t="s">
-        <v>177</v>
-      </c>
-      <c r="L63" s="206" t="s">
-        <v>177</v>
-      </c>
-      <c r="M63" s="206" t="s">
-        <v>177</v>
-      </c>
-      <c r="N63" s="206" t="s">
-        <v>110</v>
-      </c>
-      <c r="O63" s="206" t="s">
-        <v>180</v>
-      </c>
-      <c r="P63" s="206" t="s">
-        <v>111</v>
-      </c>
       <c r="Q63" s="206" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4187,55 +4187,55 @@
     </row>
     <row r="65" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="205" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="206" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="206" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="206" t="s">
+        <v>176</v>
+      </c>
+      <c r="F65" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="H65" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="206" t="s">
-        <v>178</v>
-      </c>
-      <c r="D65" s="206" t="s">
-        <v>178</v>
-      </c>
-      <c r="E65" s="206" t="s">
-        <v>178</v>
-      </c>
-      <c r="F65" s="206" t="s">
+      <c r="I65" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="J65" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="K65" s="206" t="s">
+        <v>176</v>
+      </c>
+      <c r="L65" s="206" t="s">
+        <v>176</v>
+      </c>
+      <c r="M65" s="206" t="s">
+        <v>176</v>
+      </c>
+      <c r="N65" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="O65" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="P65" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="G65" s="206" t="s">
-        <v>182</v>
-      </c>
-      <c r="H65" s="206" t="s">
-        <v>111</v>
-      </c>
-      <c r="I65" s="206" t="s">
-        <v>182</v>
-      </c>
-      <c r="J65" s="206" t="s">
-        <v>110</v>
-      </c>
-      <c r="K65" s="206" t="s">
-        <v>178</v>
-      </c>
-      <c r="L65" s="206" t="s">
-        <v>178</v>
-      </c>
-      <c r="M65" s="206" t="s">
-        <v>178</v>
-      </c>
-      <c r="N65" s="206" t="s">
-        <v>110</v>
-      </c>
-      <c r="O65" s="206" t="s">
-        <v>182</v>
-      </c>
-      <c r="P65" s="206" t="s">
-        <v>111</v>
-      </c>
       <c r="Q65" s="206" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4257,134 +4257,134 @@
       <c r="P66" s="207"/>
       <c r="Q66" s="207"/>
     </row>
-    <row r="67" spans="1:17" s="367" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="364" t="s">
+    <row r="67" spans="1:17" s="281" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="278" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="F67" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="G67" s="279" t="s">
+        <v>181</v>
+      </c>
+      <c r="H67" s="279" t="s">
+        <v>110</v>
+      </c>
+      <c r="I67" s="279" t="s">
+        <v>181</v>
+      </c>
+      <c r="J67" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="K67" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="L67" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="M67" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="N67" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="O67" s="279" t="s">
+        <v>181</v>
+      </c>
+      <c r="P67" s="279" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q67" s="279" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" s="281" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="278"/>
+      <c r="B68" s="282"/>
+      <c r="C68" s="282"/>
+      <c r="D68" s="282"/>
+      <c r="E68" s="282"/>
+      <c r="F68" s="282"/>
+      <c r="G68" s="282"/>
+      <c r="H68" s="282"/>
+      <c r="I68" s="282"/>
+      <c r="J68" s="282"/>
+      <c r="K68" s="282"/>
+      <c r="L68" s="282"/>
+      <c r="M68" s="282"/>
+      <c r="N68" s="282"/>
+      <c r="O68" s="282"/>
+      <c r="P68" s="282"/>
+      <c r="Q68" s="282"/>
+    </row>
+    <row r="69" spans="1:17" s="281" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="278" t="s">
         <v>112</v>
       </c>
-      <c r="B67" s="365" t="s">
+      <c r="B69" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="279" t="s">
+        <v>177</v>
+      </c>
+      <c r="F69" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="G69" s="279" t="s">
+        <v>113</v>
+      </c>
+      <c r="H69" s="279" t="s">
+        <v>114</v>
+      </c>
+      <c r="I69" s="279" t="s">
+        <v>113</v>
+      </c>
+      <c r="J69" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="K69" s="279" t="s">
+        <v>181</v>
+      </c>
+      <c r="L69" s="279" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="D67" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="E67" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="F67" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="G67" s="365" t="s">
-        <v>183</v>
-      </c>
-      <c r="H67" s="365" t="s">
-        <v>111</v>
-      </c>
-      <c r="I67" s="365" t="s">
-        <v>183</v>
-      </c>
-      <c r="J67" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="K67" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="L67" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="M67" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="N67" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="O67" s="365" t="s">
-        <v>183</v>
-      </c>
-      <c r="P67" s="365" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q67" s="365" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" s="367" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="364"/>
-      <c r="B68" s="368"/>
-      <c r="C68" s="368"/>
-      <c r="D68" s="368"/>
-      <c r="E68" s="368"/>
-      <c r="F68" s="368"/>
-      <c r="G68" s="368"/>
-      <c r="H68" s="368"/>
-      <c r="I68" s="368"/>
-      <c r="J68" s="368"/>
-      <c r="K68" s="368"/>
-      <c r="L68" s="368"/>
-      <c r="M68" s="368"/>
-      <c r="N68" s="368"/>
-      <c r="O68" s="368"/>
-      <c r="P68" s="368"/>
-      <c r="Q68" s="368"/>
-    </row>
-    <row r="69" spans="1:17" s="367" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="364" t="s">
+      <c r="M69" s="279" t="s">
+        <v>181</v>
+      </c>
+      <c r="N69" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="O69" s="279" t="s">
         <v>113</v>
       </c>
-      <c r="B69" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="D69" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="E69" s="365" t="s">
-        <v>179</v>
-      </c>
-      <c r="F69" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="G69" s="365" t="s">
+      <c r="P69" s="279" t="s">
         <v>114</v>
       </c>
-      <c r="H69" s="365" t="s">
-        <v>115</v>
-      </c>
-      <c r="I69" s="365" t="s">
-        <v>114</v>
-      </c>
-      <c r="J69" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="K69" s="365" t="s">
-        <v>183</v>
-      </c>
-      <c r="L69" s="365" t="s">
-        <v>111</v>
-      </c>
-      <c r="M69" s="365" t="s">
-        <v>183</v>
-      </c>
-      <c r="N69" s="365" t="s">
-        <v>110</v>
-      </c>
-      <c r="O69" s="365" t="s">
-        <v>114</v>
-      </c>
-      <c r="P69" s="365" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q69" s="365" t="s">
-        <v>114</v>
+      <c r="Q69" s="279" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="234" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A73" s="233" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="209" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
@@ -4392,79 +4392,79 @@
         <v>58</v>
       </c>
       <c r="B74" s="238" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="238" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="238" t="s">
-        <v>107</v>
-      </c>
       <c r="D74" s="238" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E74" s="238" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F74" s="238" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="232" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="232" t="s">
         <v>125</v>
       </c>
-      <c r="B75" s="232" t="s">
+      <c r="C75" s="240" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" s="240" t="s">
+        <v>137</v>
+      </c>
+      <c r="E75" s="232" t="s">
         <v>126</v>
       </c>
-      <c r="C75" s="240" t="s">
-        <v>138</v>
-      </c>
-      <c r="D75" s="240" t="s">
-        <v>138</v>
-      </c>
-      <c r="E75" s="232" t="s">
+      <c r="F75" s="232" t="s">
         <v>127</v>
-      </c>
-      <c r="F75" s="232" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="232" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="232" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" s="232" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="232" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" s="232" t="s">
+      <c r="D76" s="232" t="s">
         <v>130</v>
       </c>
-      <c r="D76" s="232" t="s">
+      <c r="E76" s="232" t="s">
         <v>131</v>
       </c>
-      <c r="E76" s="232" t="s">
-        <v>132</v>
-      </c>
       <c r="F76" s="232" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="232" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B77" s="232" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C77" s="232" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="232" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="232" t="s">
+      <c r="E77" s="232" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="232" t="s">
-        <v>132</v>
-      </c>
       <c r="F77" s="232" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4474,7 +4474,7 @@
       <c r="D78" s="232"/>
       <c r="E78" s="232"/>
       <c r="F78" s="235" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4495,62 +4495,62 @@
     </row>
     <row r="82" spans="1:6" s="209" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A82" s="239" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B82" s="238" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="238" t="s">
         <v>106</v>
       </c>
-      <c r="C82" s="238" t="s">
-        <v>107</v>
-      </c>
       <c r="D82" s="238" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E82" s="238" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F82" s="238" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="232" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="232" t="s">
         <v>125</v>
       </c>
-      <c r="B83" s="232" t="s">
+      <c r="C83" s="240" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="240" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83" s="232" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="240" t="s">
-        <v>138</v>
-      </c>
-      <c r="D83" s="240" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83" s="232" t="s">
+      <c r="F83" s="232" t="s">
         <v>127</v>
-      </c>
-      <c r="F83" s="232" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="232" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="232" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="232" t="s">
         <v>129</v>
       </c>
-      <c r="B84" s="232" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" s="232" t="s">
+      <c r="D84" s="232" t="s">
         <v>130</v>
       </c>
-      <c r="D84" s="232" t="s">
+      <c r="E84" s="232" t="s">
         <v>131</v>
       </c>
-      <c r="E84" s="232" t="s">
-        <v>132</v>
-      </c>
       <c r="F84" s="232" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4560,7 +4560,7 @@
       <c r="D85" s="232"/>
       <c r="E85" s="232"/>
       <c r="F85" s="206" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="233" customFormat="1" ht="17.25" x14ac:dyDescent="0.45"/>
@@ -4643,10 +4643,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="293"/>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
+      <c r="C4" s="301"/>
+      <c r="D4" s="301"/>
+      <c r="E4" s="301"/>
+      <c r="F4" s="301"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17" t="s">
         <v>14</v>
@@ -4660,10 +4660,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
       <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4688,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="293"/>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="301"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -4703,10 +4703,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="293"/>
-      <c r="D8" s="293"/>
-      <c r="E8" s="293"/>
-      <c r="F8" s="293"/>
+      <c r="C8" s="301"/>
+      <c r="D8" s="301"/>
+      <c r="E8" s="301"/>
+      <c r="F8" s="301"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -4718,10 +4718,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -4755,215 +4755,215 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="294" t="s">
+      <c r="H12" s="302" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="295"/>
-      <c r="J12" s="296" t="s">
+      <c r="I12" s="303"/>
+      <c r="J12" s="304" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="296"/>
-      <c r="L12" s="296"/>
+      <c r="K12" s="304"/>
+      <c r="L12" s="304"/>
     </row>
     <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="297" t="s">
+      <c r="A13" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="308" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="300" t="s">
+      <c r="C13" s="308" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="300"/>
-      <c r="E13" s="300"/>
-      <c r="F13" s="302" t="s">
+      <c r="D13" s="308"/>
+      <c r="E13" s="308"/>
+      <c r="F13" s="310" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="303"/>
+      <c r="G13" s="311"/>
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="284" t="s">
+      <c r="J13" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="286"/>
-      <c r="L13" s="280">
+      <c r="K13" s="294"/>
+      <c r="L13" s="288">
         <f>ROUND(K13*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="298"/>
-      <c r="B14" s="301"/>
-      <c r="C14" s="301" t="s">
+      <c r="A14" s="306"/>
+      <c r="B14" s="309"/>
+      <c r="C14" s="309" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="301"/>
-      <c r="E14" s="301"/>
-      <c r="F14" s="304" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="305"/>
+      <c r="D14" s="309"/>
+      <c r="E14" s="309"/>
+      <c r="F14" s="312" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="313"/>
       <c r="H14" s="24"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="285"/>
-      <c r="K14" s="287"/>
-      <c r="L14" s="281"/>
+      <c r="J14" s="293"/>
+      <c r="K14" s="295"/>
+      <c r="L14" s="289"/>
     </row>
     <row r="15" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="298"/>
-      <c r="B15" s="301"/>
-      <c r="C15" s="301" t="s">
+      <c r="A15" s="306"/>
+      <c r="B15" s="309"/>
+      <c r="C15" s="309" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="301"/>
-      <c r="E15" s="301"/>
-      <c r="F15" s="304" t="s">
+      <c r="D15" s="309"/>
+      <c r="E15" s="309"/>
+      <c r="F15" s="312" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="305"/>
+      <c r="G15" s="313"/>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="285"/>
-      <c r="K15" s="288"/>
-      <c r="L15" s="281"/>
+      <c r="J15" s="293"/>
+      <c r="K15" s="296"/>
+      <c r="L15" s="289"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="298"/>
-      <c r="B16" s="306" t="s">
+      <c r="A16" s="306"/>
+      <c r="B16" s="314" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="301" t="s">
+      <c r="C16" s="309" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="301"/>
-      <c r="E16" s="301"/>
-      <c r="F16" s="304" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="305"/>
+      <c r="D16" s="309"/>
+      <c r="E16" s="309"/>
+      <c r="F16" s="312" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="313"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="285" t="s">
+      <c r="J16" s="293" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="279"/>
-      <c r="L16" s="281">
+      <c r="K16" s="287"/>
+      <c r="L16" s="289">
         <f>ROUND(K16*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="298"/>
-      <c r="B17" s="307"/>
-      <c r="C17" s="301" t="s">
+      <c r="A17" s="306"/>
+      <c r="B17" s="315"/>
+      <c r="C17" s="309" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="301"/>
-      <c r="E17" s="301"/>
-      <c r="F17" s="304" t="s">
+      <c r="D17" s="309"/>
+      <c r="E17" s="309"/>
+      <c r="F17" s="312" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="305"/>
+      <c r="G17" s="313"/>
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="285"/>
-      <c r="K17" s="279"/>
-      <c r="L17" s="281"/>
+      <c r="J17" s="293"/>
+      <c r="K17" s="287"/>
+      <c r="L17" s="289"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="299"/>
-      <c r="B18" s="308"/>
-      <c r="C18" s="310" t="s">
+      <c r="A18" s="307"/>
+      <c r="B18" s="316"/>
+      <c r="C18" s="318" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="310"/>
-      <c r="E18" s="310"/>
-      <c r="F18" s="291" t="s">
+      <c r="D18" s="318"/>
+      <c r="E18" s="318"/>
+      <c r="F18" s="299" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="292"/>
+      <c r="G18" s="300"/>
       <c r="H18" s="31"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="309"/>
-      <c r="K18" s="289"/>
-      <c r="L18" s="290"/>
+      <c r="J18" s="317"/>
+      <c r="K18" s="297"/>
+      <c r="L18" s="298"/>
     </row>
     <row r="19" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="297" t="s">
+      <c r="A19" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="314" t="s">
+      <c r="B19" s="322" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="300" t="s">
+      <c r="C19" s="308" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="300"/>
-      <c r="E19" s="300"/>
-      <c r="F19" s="317" t="s">
+      <c r="D19" s="308"/>
+      <c r="E19" s="308"/>
+      <c r="F19" s="325" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="318"/>
+      <c r="G19" s="326"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="284" t="s">
+      <c r="J19" s="292" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="278"/>
-      <c r="L19" s="280">
+      <c r="K19" s="286"/>
+      <c r="L19" s="288">
         <f>ROUND(K19*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="298"/>
-      <c r="B20" s="315"/>
-      <c r="C20" s="301" t="s">
+      <c r="A20" s="306"/>
+      <c r="B20" s="323"/>
+      <c r="C20" s="309" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="301"/>
-      <c r="E20" s="301"/>
-      <c r="F20" s="304" t="s">
+      <c r="D20" s="309"/>
+      <c r="E20" s="309"/>
+      <c r="F20" s="312" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="305"/>
+      <c r="G20" s="313"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="285"/>
-      <c r="K20" s="279"/>
-      <c r="L20" s="281"/>
+      <c r="J20" s="293"/>
+      <c r="K20" s="287"/>
+      <c r="L20" s="289"/>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="298"/>
-      <c r="B21" s="316"/>
-      <c r="C21" s="301" t="s">
+      <c r="A21" s="306"/>
+      <c r="B21" s="324"/>
+      <c r="C21" s="309" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="301"/>
-      <c r="E21" s="301"/>
-      <c r="F21" s="304" t="s">
+      <c r="D21" s="309"/>
+      <c r="E21" s="309"/>
+      <c r="F21" s="312" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="305"/>
+      <c r="G21" s="313"/>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="285"/>
-      <c r="K21" s="279"/>
-      <c r="L21" s="281"/>
+      <c r="J21" s="293"/>
+      <c r="K21" s="287"/>
+      <c r="L21" s="289"/>
     </row>
     <row r="22" spans="1:12" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="299"/>
+      <c r="A22" s="307"/>
       <c r="B22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="310"/>
-      <c r="D22" s="310"/>
-      <c r="E22" s="310"/>
-      <c r="F22" s="291" t="s">
+      <c r="C22" s="318"/>
+      <c r="D22" s="318"/>
+      <c r="E22" s="318"/>
+      <c r="F22" s="299" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="292"/>
+      <c r="G22" s="300"/>
       <c r="H22" s="36"/>
       <c r="I22" s="37"/>
       <c r="J22" s="38" t="s">
@@ -4982,15 +4982,15 @@
       <c r="B23" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="311" t="s">
+      <c r="C23" s="319" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="311"/>
-      <c r="E23" s="311"/>
-      <c r="F23" s="312" t="s">
+      <c r="D23" s="319"/>
+      <c r="E23" s="319"/>
+      <c r="F23" s="320" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="313"/>
+      <c r="G23" s="321"/>
       <c r="H23" s="40"/>
       <c r="I23" s="41"/>
       <c r="J23" s="42" t="s">
@@ -5029,11 +5029,11 @@
         <v>6</v>
       </c>
       <c r="J25" s="46"/>
-      <c r="K25" s="282">
+      <c r="K25" s="290">
         <f>SUM(L13:L23)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="283"/>
+      <c r="L25" s="291"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K26" s="242"/>
@@ -5155,7 +5155,7 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H3" s="138"/>
       <c r="I3" s="17" t="s">
@@ -5187,10 +5187,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
       <c r="H5" s="138"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -5204,10 +5204,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5232,10 +5232,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="319"/>
-      <c r="D8" s="319"/>
-      <c r="E8" s="319"/>
-      <c r="F8" s="319"/>
+      <c r="C8" s="327"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="327"/>
+      <c r="F8" s="327"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -5247,10 +5247,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -5262,10 +5262,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
+      <c r="C10" s="301"/>
+      <c r="D10" s="301"/>
+      <c r="E10" s="301"/>
+      <c r="F10" s="301"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -6240,7 +6240,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="76" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H2" s="138"/>
       <c r="I2" s="17" t="s">
@@ -6284,10 +6284,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
       <c r="H5" s="138"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -6301,10 +6301,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -6333,10 +6333,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="319"/>
-      <c r="D8" s="319"/>
-      <c r="E8" s="319"/>
-      <c r="F8" s="319"/>
+      <c r="C8" s="327"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="327"/>
+      <c r="F8" s="327"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -6348,10 +6348,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -6363,10 +6363,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
+      <c r="C10" s="301"/>
+      <c r="D10" s="301"/>
+      <c r="E10" s="301"/>
+      <c r="F10" s="301"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="81"/>
@@ -6536,7 +6536,7 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="81"/>
@@ -7372,10 +7372,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
       <c r="H5" s="138"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -7389,10 +7389,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -7421,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="319"/>
-      <c r="D8" s="319"/>
-      <c r="E8" s="319"/>
-      <c r="F8" s="319"/>
+      <c r="C8" s="327"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="327"/>
+      <c r="F8" s="327"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -7436,10 +7436,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -7451,10 +7451,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
+      <c r="C10" s="301"/>
+      <c r="D10" s="301"/>
+      <c r="E10" s="301"/>
+      <c r="F10" s="301"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -7486,21 +7486,21 @@
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="320" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="322" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="323"/>
-      <c r="D14" s="323"/>
-      <c r="E14" s="323"/>
-      <c r="F14" s="323"/>
-      <c r="G14" s="323"/>
-      <c r="H14" s="323"/>
-      <c r="I14" s="324"/>
+      <c r="A14" s="328" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="330" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="331"/>
+      <c r="D14" s="331"/>
+      <c r="E14" s="331"/>
+      <c r="F14" s="331"/>
+      <c r="G14" s="331"/>
+      <c r="H14" s="331"/>
+      <c r="I14" s="332"/>
       <c r="J14" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K14" s="264"/>
       <c r="L14" s="245">
@@ -7510,19 +7510,19 @@
       <c r="M14" s="47"/>
     </row>
     <row r="15" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="321"/>
-      <c r="B15" s="325" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="326"/>
-      <c r="D15" s="326"/>
-      <c r="E15" s="326"/>
-      <c r="F15" s="326"/>
-      <c r="G15" s="326"/>
-      <c r="H15" s="326"/>
-      <c r="I15" s="326"/>
+      <c r="A15" s="329"/>
+      <c r="B15" s="333" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="334"/>
+      <c r="D15" s="334"/>
+      <c r="E15" s="334"/>
+      <c r="F15" s="334"/>
+      <c r="G15" s="334"/>
+      <c r="H15" s="334"/>
+      <c r="I15" s="334"/>
       <c r="J15" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K15" s="265"/>
       <c r="L15" s="249">
@@ -7531,21 +7531,21 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="320" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="328" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="329"/>
-      <c r="D16" s="329"/>
-      <c r="E16" s="329"/>
-      <c r="F16" s="329"/>
-      <c r="G16" s="329"/>
-      <c r="H16" s="329"/>
-      <c r="I16" s="329"/>
+      <c r="A16" s="328" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="336" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="337"/>
+      <c r="D16" s="337"/>
+      <c r="E16" s="337"/>
+      <c r="F16" s="337"/>
+      <c r="G16" s="337"/>
+      <c r="H16" s="337"/>
+      <c r="I16" s="337"/>
       <c r="J16" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K16" s="266"/>
       <c r="L16" s="246">
@@ -7554,17 +7554,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="327"/>
-      <c r="B17" s="330" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="331"/>
-      <c r="D17" s="331"/>
-      <c r="E17" s="331"/>
-      <c r="F17" s="331"/>
-      <c r="G17" s="331"/>
-      <c r="H17" s="331"/>
-      <c r="I17" s="331"/>
+      <c r="A17" s="335"/>
+      <c r="B17" s="338" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="339"/>
+      <c r="D17" s="339"/>
+      <c r="E17" s="339"/>
+      <c r="F17" s="339"/>
+      <c r="G17" s="339"/>
+      <c r="H17" s="339"/>
+      <c r="I17" s="339"/>
       <c r="J17" s="26" t="s">
         <v>4</v>
       </c>
@@ -7575,19 +7575,19 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="321"/>
-      <c r="B18" s="332" t="s">
+      <c r="A18" s="329"/>
+      <c r="B18" s="340" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="326"/>
-      <c r="D18" s="326"/>
-      <c r="E18" s="326"/>
-      <c r="F18" s="326"/>
-      <c r="G18" s="326"/>
-      <c r="H18" s="326"/>
-      <c r="I18" s="326"/>
+      <c r="C18" s="334"/>
+      <c r="D18" s="334"/>
+      <c r="E18" s="334"/>
+      <c r="F18" s="334"/>
+      <c r="G18" s="334"/>
+      <c r="H18" s="334"/>
+      <c r="I18" s="334"/>
       <c r="J18" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K18" s="268"/>
       <c r="L18" s="248">
@@ -7733,8 +7733,8 @@
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView showZeros="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -7798,10 +7798,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
       <c r="H5" s="138"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -7815,10 +7815,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7843,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="319"/>
-      <c r="D8" s="319"/>
-      <c r="E8" s="319"/>
-      <c r="F8" s="319"/>
+      <c r="C8" s="327"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="327"/>
+      <c r="F8" s="327"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -7858,10 +7858,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -7873,10 +7873,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
+      <c r="C10" s="301"/>
+      <c r="D10" s="301"/>
+      <c r="E10" s="301"/>
+      <c r="F10" s="301"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -7926,14 +7926,14 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="333" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="334"/>
-      <c r="C15" s="334"/>
-      <c r="D15" s="334"/>
-      <c r="E15" s="334"/>
-      <c r="F15" s="335"/>
+      <c r="A15" s="341" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="342"/>
+      <c r="C15" s="342"/>
+      <c r="D15" s="342"/>
+      <c r="E15" s="342"/>
+      <c r="F15" s="343"/>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
       <c r="I15" s="14"/>
@@ -7942,14 +7942,14 @@
       <c r="L15" s="260"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="333" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="334"/>
-      <c r="C16" s="334"/>
-      <c r="D16" s="334"/>
-      <c r="E16" s="334"/>
-      <c r="F16" s="335"/>
+      <c r="A16" s="341" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="342"/>
+      <c r="C16" s="342"/>
+      <c r="D16" s="342"/>
+      <c r="E16" s="342"/>
+      <c r="F16" s="343"/>
       <c r="G16" s="59"/>
       <c r="H16" s="59"/>
       <c r="I16" s="14"/>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="217" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B17" s="218"/>
       <c r="C17" s="218"/>
@@ -7975,7 +7975,7 @@
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="217" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B18" s="218"/>
       <c r="C18" s="218"/>
@@ -7991,7 +7991,7 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="217" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="218"/>
       <c r="C19" s="218"/>
@@ -8010,27 +8010,27 @@
       <c r="L20" s="179"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="339" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="340"/>
-      <c r="C21" s="340"/>
-      <c r="D21" s="340"/>
-      <c r="E21" s="340"/>
-      <c r="F21" s="340"/>
-      <c r="G21" s="340"/>
-      <c r="H21" s="340"/>
-      <c r="I21" s="340"/>
+      <c r="A21" s="347" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="348"/>
+      <c r="C21" s="348"/>
+      <c r="D21" s="348"/>
+      <c r="E21" s="348"/>
+      <c r="F21" s="348"/>
+      <c r="G21" s="348"/>
+      <c r="H21" s="348"/>
+      <c r="I21" s="348"/>
       <c r="J21" s="178"/>
       <c r="K21" s="177"/>
       <c r="L21" s="10"/>
       <c r="R21" s="172"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="347" t="s">
+      <c r="A22" s="355" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="348"/>
+      <c r="B22" s="356"/>
       <c r="C22" s="176"/>
       <c r="D22" s="176"/>
       <c r="E22" s="176"/>
@@ -8045,18 +8045,18 @@
       <c r="R22" s="172"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="343" t="s">
+      <c r="A23" s="351" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="344"/>
+      <c r="B23" s="352"/>
       <c r="C23" s="269"/>
-      <c r="D23" s="341" t="s">
+      <c r="D23" s="349" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="342"/>
+      <c r="E23" s="350"/>
       <c r="F23" s="270"/>
       <c r="G23" s="220" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="221">
         <f>IFERROR(IF(ROUND(C23/F23,3)&gt;10,10,ROUND(C23/F23,3)),10)</f>
@@ -8066,7 +8066,7 @@
         <v>83</v>
       </c>
       <c r="J23" s="220" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K23" s="223">
         <f>10-H23</f>
@@ -8076,11 +8076,11 @@
       <c r="R23" s="172"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="345" t="s">
+      <c r="A24" s="353" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="346"/>
-      <c r="C24" s="346"/>
+      <c r="B24" s="354"/>
+      <c r="C24" s="354"/>
       <c r="D24" s="224"/>
       <c r="E24" s="224"/>
       <c r="F24" s="224"/>
@@ -8092,19 +8092,19 @@
       <c r="R24" s="172"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="336" t="s">
+      <c r="A25" s="344" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="337"/>
-      <c r="C25" s="337"/>
-      <c r="D25" s="337"/>
-      <c r="E25" s="337"/>
-      <c r="F25" s="337"/>
-      <c r="G25" s="337"/>
-      <c r="H25" s="337"/>
-      <c r="I25" s="337"/>
-      <c r="J25" s="337"/>
-      <c r="K25" s="338"/>
+      <c r="B25" s="345"/>
+      <c r="C25" s="345"/>
+      <c r="D25" s="345"/>
+      <c r="E25" s="345"/>
+      <c r="F25" s="345"/>
+      <c r="G25" s="345"/>
+      <c r="H25" s="345"/>
+      <c r="I25" s="345"/>
+      <c r="J25" s="345"/>
+      <c r="K25" s="346"/>
       <c r="L25" s="11">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L28" s="165" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8272,7 +8272,7 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -8863,17 +8863,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="355" t="s">
+      <c r="A2" s="363" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="355"/>
-      <c r="C2" s="355"/>
-      <c r="D2" s="355"/>
-      <c r="E2" s="355"/>
-      <c r="F2" s="355"/>
-      <c r="G2" s="355"/>
-      <c r="H2" s="355"/>
-      <c r="I2" s="355"/>
+      <c r="B2" s="363"/>
+      <c r="C2" s="363"/>
+      <c r="D2" s="363"/>
+      <c r="E2" s="363"/>
+      <c r="F2" s="363"/>
+      <c r="G2" s="363"/>
+      <c r="H2" s="363"/>
+      <c r="I2" s="363"/>
       <c r="J2" s="183"/>
       <c r="K2" s="183"/>
       <c r="L2" s="183"/>
@@ -8918,10 +8918,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
       <c r="G5" s="182"/>
       <c r="H5" s="138"/>
       <c r="I5" s="17" t="s">
@@ -8936,10 +8936,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
       <c r="G6" s="181"/>
       <c r="H6" s="138"/>
       <c r="I6" s="17" t="s">
@@ -8970,10 +8970,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="319"/>
-      <c r="D8" s="319"/>
-      <c r="E8" s="319"/>
-      <c r="F8" s="319"/>
+      <c r="C8" s="327"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="327"/>
+      <c r="F8" s="327"/>
       <c r="G8" s="203"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -8988,10 +8988,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
       <c r="G9" s="203"/>
       <c r="H9" s="180"/>
       <c r="I9" s="180"/>
@@ -9004,15 +9004,15 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
+      <c r="C10" s="301"/>
+      <c r="D10" s="301"/>
+      <c r="E10" s="301"/>
+      <c r="F10" s="301"/>
       <c r="G10" s="203"/>
       <c r="H10" s="180"/>
       <c r="I10" s="180"/>
-      <c r="J10" s="351"/>
-      <c r="K10" s="351"/>
+      <c r="J10" s="359"/>
+      <c r="K10" s="359"/>
       <c r="L10" s="204"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -9024,7 +9024,7 @@
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="155" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12" s="202"/>
       <c r="I12" s="202"/>
@@ -9034,38 +9034,38 @@
     </row>
     <row r="13" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="252" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="253" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="253" t="s">
+      <c r="D13" s="364" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="356" t="s">
+      <c r="E13" s="365"/>
+      <c r="F13" s="253" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="357"/>
-      <c r="F13" s="253" t="s">
+      <c r="G13" s="253" t="s">
         <v>162</v>
       </c>
-      <c r="G13" s="253" t="s">
+      <c r="H13" s="254" t="s">
         <v>163</v>
       </c>
-      <c r="H13" s="254" t="s">
-        <v>164</v>
-      </c>
       <c r="I13" s="255" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="360" t="s">
-        <v>169</v>
-      </c>
-      <c r="K13" s="361"/>
+        <v>123</v>
+      </c>
+      <c r="J13" s="368" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="369"/>
       <c r="L13" s="202"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="271"/>
       <c r="C14" s="272"/>
-      <c r="D14" s="358"/>
-      <c r="E14" s="359"/>
+      <c r="D14" s="366"/>
+      <c r="E14" s="367"/>
       <c r="F14" s="272"/>
       <c r="G14" s="272"/>
       <c r="H14" s="273"/>
@@ -9073,11 +9073,11 @@
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="362">
+      <c r="J14" s="370">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="363"/>
+      <c r="K14" s="371"/>
       <c r="L14" s="202"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9104,20 +9104,20 @@
     </row>
     <row r="17" spans="1:12" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="244" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="352" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="360" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="361"/>
+      <c r="D17" s="361"/>
+      <c r="E17" s="361"/>
+      <c r="F17" s="361"/>
+      <c r="G17" s="361"/>
+      <c r="H17" s="361"/>
+      <c r="I17" s="362"/>
+      <c r="J17" s="200" t="s">
         <v>165</v>
-      </c>
-      <c r="C17" s="353"/>
-      <c r="D17" s="353"/>
-      <c r="E17" s="353"/>
-      <c r="F17" s="353"/>
-      <c r="G17" s="353"/>
-      <c r="H17" s="353"/>
-      <c r="I17" s="354"/>
-      <c r="J17" s="200" t="s">
-        <v>166</v>
       </c>
       <c r="K17" s="226">
         <f>J14</f>
@@ -9129,21 +9129,21 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="349" t="s">
+      <c r="A18" s="357" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="328" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="329"/>
-      <c r="D18" s="329"/>
-      <c r="E18" s="329"/>
-      <c r="F18" s="329"/>
-      <c r="G18" s="329"/>
-      <c r="H18" s="329"/>
-      <c r="I18" s="329"/>
+      <c r="B18" s="336" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="337"/>
+      <c r="D18" s="337"/>
+      <c r="E18" s="337"/>
+      <c r="F18" s="337"/>
+      <c r="G18" s="337"/>
+      <c r="H18" s="337"/>
+      <c r="I18" s="337"/>
       <c r="J18" s="200" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K18" s="266"/>
       <c r="L18" s="199">
@@ -9152,19 +9152,19 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="350"/>
-      <c r="B19" s="330" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="331"/>
-      <c r="D19" s="331"/>
-      <c r="E19" s="331"/>
-      <c r="F19" s="331"/>
-      <c r="G19" s="331"/>
-      <c r="H19" s="331"/>
-      <c r="I19" s="331"/>
+      <c r="A19" s="358"/>
+      <c r="B19" s="338" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="339"/>
+      <c r="D19" s="339"/>
+      <c r="E19" s="339"/>
+      <c r="F19" s="339"/>
+      <c r="G19" s="339"/>
+      <c r="H19" s="339"/>
+      <c r="I19" s="339"/>
       <c r="J19" s="198" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K19" s="267"/>
       <c r="L19" s="197">
@@ -9318,6 +9318,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9326,7 +9335,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9392,16 +9401,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9409,7 +9424,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9424,19 +9439,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>